--- a/ejemplos/Plantilla_Entrada_ERP_IDEPLAS.xlsx
+++ b/ejemplos/Plantilla_Entrada_ERP_IDEPLAS.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1510d6d17ff2404d/99-DESARROLLO/Python/DataSmartExpress/App_DataSmart_Express/ejemplos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{2E26268F-1A12-4EA1-B4EB-9E9804091E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8765E7D0-AF9D-49C6-AD36-02170441E42E}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{2E26268F-1A12-4EA1-B4EB-9E9804091E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E89E101-9826-492A-B5DF-28363AA3CDF2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{62C41776-1389-4CB2-A790-05E6E98DF11A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{62C41776-1389-4CB2-A790-05E6E98DF11A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="CLASIFICACION_CUENTAS" sheetId="2" r:id="rId1"/>
+    <sheet name="DATOS_FINANCIEROS" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DATOS_FINANCIEROS!$A$1:$H$2772</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11108" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11110" uniqueCount="185">
   <si>
     <t>AÑO</t>
   </si>
@@ -559,12 +563,63 @@
   <si>
     <t xml:space="preserve">240302    </t>
   </si>
+  <si>
+    <t>PREFIJO</t>
+  </si>
+  <si>
+    <t>GRUPO</t>
+  </si>
+  <si>
+    <t>NATURALEZA_CONTABLE</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>VENTAS</t>
+  </si>
+  <si>
+    <t>COSTO MERCANCIA VENDIDA</t>
+  </si>
+  <si>
+    <t>GASTOS OPERACIONALES ADMINISTRACION</t>
+  </si>
+  <si>
+    <t>GASTOS OPERACIONALES DE VENTAS</t>
+  </si>
+  <si>
+    <t>INGRESOS NO OPERACIONALES</t>
+  </si>
+  <si>
+    <t>GASTOS NO OPERACIONALES</t>
+  </si>
+  <si>
+    <t>IMPUESTO DE RENTA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,7 +636,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -589,15 +644,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -929,39 +1023,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFC3F19-9BFF-4BF3-B763-C33D8F68AA8A}">
-  <dimension ref="A1:H2776"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469E4980-7386-47D9-BA8C-57BF9AF5A6FC}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796A41E2-867C-4992-8AFF-2866CDF21BD8}">
+  <dimension ref="A1:H2772"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2753" workbookViewId="0">
+      <selection activeCell="A2773" sqref="A2773:XFD2776"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="49" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.5546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -24573,7 +24781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A910">
         <v>2024</v>
       </c>
@@ -73011,111 +73219,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2773" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2773">
-        <v>2027</v>
-      </c>
-      <c r="B2773">
-        <v>7</v>
-      </c>
-      <c r="C2773" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2773" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2773" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2773" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2773">
-        <v>74000</v>
-      </c>
-      <c r="H2773">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2774" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2774">
-        <v>2027</v>
-      </c>
-      <c r="B2774">
-        <v>7</v>
-      </c>
-      <c r="C2774" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2774" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2774" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2774" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2774">
-        <v>16257</v>
-      </c>
-      <c r="H2774">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2775" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2775">
-        <v>2027</v>
-      </c>
-      <c r="B2775">
-        <v>7</v>
-      </c>
-      <c r="C2775" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2775" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2775" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2775" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2775">
-        <v>14250</v>
-      </c>
-      <c r="H2775">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2776" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2776">
-        <v>2027</v>
-      </c>
-      <c r="B2776">
-        <v>7</v>
-      </c>
-      <c r="C2776" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2776" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2776" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2776" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2776">
-        <v>15000</v>
-      </c>
-      <c r="H2776">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:H2772" xr:uid="{796A41E2-867C-4992-8AFF-2866CDF21BD8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>